--- a/tradept/Excel/Localization/english/Y野怪投放适配表_MonsterInfos_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y野怪投放适配表_MonsterInfos_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\tradesp\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9CB8FC0-A978-4A96-8599-C9CDEA187CEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0326780C-522B-4166-86B9-CF090123D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -124,16 +124,16 @@
     <t>Bandido</t>
   </si>
   <si>
-    <t>Manada de Lobos</t>
-  </si>
-  <si>
-    <t>Dragon de Hielo</t>
-  </si>
-  <si>
-    <t>Dragon Venenoso</t>
-  </si>
-  <si>
-    <t>Dragon de Fuego</t>
+    <t>Dragão de Fogo</t>
+  </si>
+  <si>
+    <t>Dragão Venenoso</t>
+  </si>
+  <si>
+    <t>Dragão de Gelo</t>
+  </si>
+  <si>
+    <t>Matilha de Lobos</t>
   </si>
 </sst>
 </file>
@@ -278,36 +278,36 @@
     </xf>
   </cellStyleXfs>
   <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Incorrecto" xfId="1" builtinId="27"/>
+    <cellStyle name="Bad" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="普通" xfId="2" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
     <cellStyle name="普通 2" xfId="3" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
@@ -667,10 +667,13 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="C2" sqref="C2:C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="45">
       <c r="A1" s="6" t="s">
@@ -691,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -702,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -713,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -768,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:3">

--- a/tradept/Excel/Localization/english/Y野怪投放适配表_MonsterInfos_hotfix.xlsx
+++ b/tradept/Excel/Localization/english/Y野怪投放适配表_MonsterInfos_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\english\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="A:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\default-files\Example_ExcelReference\excel\Main\Localization\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0326780C-522B-4166-86B9-CF090123D524}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{770DE1E3-B734-49BF-99C4-C4924C214CCD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="2" r:id="rId1"/>
@@ -121,19 +121,19 @@
     <t>强盗5级5</t>
   </si>
   <si>
+    <t>Dragão de Fogo</t>
+  </si>
+  <si>
+    <t>Dragão Venenoso</t>
+  </si>
+  <si>
+    <t>Dragão de Gelo</t>
+  </si>
+  <si>
+    <t>Matilha de Lobos</t>
+  </si>
+  <si>
     <t>Bandido</t>
-  </si>
-  <si>
-    <t>Dragão de Fogo</t>
-  </si>
-  <si>
-    <t>Dragão Venenoso</t>
-  </si>
-  <si>
-    <t>Dragão de Gelo</t>
-  </si>
-  <si>
-    <t>Matilha de Lobos</t>
   </si>
 </sst>
 </file>
@@ -667,10 +667,10 @@
   <dimension ref="A1:C28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C28"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="20.625" bestFit="1" customWidth="1"/>
   </cols>
@@ -694,7 +694,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -705,7 +705,7 @@
         <v>5</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -716,7 +716,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -727,7 +727,7 @@
         <v>8</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -738,7 +738,7 @@
         <v>8</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -749,7 +749,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -760,7 +760,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -771,7 +771,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -782,7 +782,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -793,7 +793,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -804,7 +804,7 @@
         <v>8</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -815,7 +815,7 @@
         <v>8</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -826,7 +826,7 @@
         <v>8</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -837,7 +837,7 @@
         <v>8</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -848,7 +848,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -859,7 +859,7 @@
         <v>8</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -870,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -881,7 +881,7 @@
         <v>8</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -892,7 +892,7 @@
         <v>8</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -903,7 +903,7 @@
         <v>8</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -914,7 +914,7 @@
         <v>8</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -925,7 +925,7 @@
         <v>8</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -936,7 +936,7 @@
         <v>8</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -947,7 +947,7 @@
         <v>8</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -958,7 +958,7 @@
         <v>8</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -969,7 +969,7 @@
         <v>8</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -980,7 +980,7 @@
         <v>8</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
